--- a/src/main/java/com/qa/hubspot/testdata/hubspottestdata.xlsx
+++ b/src/main/java/com/qa/hubspot/testdata/hubspottestdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
@@ -26,9 +26,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>jobtitle</t>
-  </si>
-  <si>
     <t>S@test.com</t>
   </si>
   <si>
@@ -38,18 +35,12 @@
     <t>ppp</t>
   </si>
   <si>
-    <t>QA1</t>
-  </si>
-  <si>
     <t>u@test.com</t>
   </si>
   <si>
     <t>uuu</t>
   </si>
   <si>
-    <t>QA2</t>
-  </si>
-  <si>
     <t>a@test.com</t>
   </si>
   <si>
@@ -59,16 +50,10 @@
     <t>ssss</t>
   </si>
   <si>
-    <t>QA3</t>
-  </si>
-  <si>
     <t>b@test.com</t>
   </si>
   <si>
     <t>bbb</t>
-  </si>
-  <si>
-    <t>QA4</t>
   </si>
   <si>
     <t>dealname</t>
@@ -437,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +433,7 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,64 +443,49 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -540,15 +510,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -556,7 +526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>222</v>
@@ -564,7 +534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>333</v>
